--- a/data/overall_data/romance_result.xlsx
+++ b/data/overall_data/romance_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JHU\Research\Honey's Lab\Agency_choice_memory\reproduce\data\overall_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D675FC95-3F39-481B-BD01-D90C84CDE28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77D9A23-2C1A-4A14-AF5F-6046D0151BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="15390" windowHeight="13740" firstSheet="2" activeTab="4" xr2:uid="{3C7A328E-4A82-E648-80EF-E715D510E8D9}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="15390" windowHeight="13740" xr2:uid="{3C7A328E-4A82-E648-80EF-E715D510E8D9}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_conds18" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="379">
   <si>
     <t>sem-ef</t>
   </si>
@@ -1165,12 +1165,6 @@
     <t>rcl-nocho_diverg-from-group</t>
   </si>
   <si>
-    <t>idv-sem-ef</t>
-  </si>
-  <si>
-    <t>idv-caus-ef</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -1581,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F1AE8C-56F9-4E4E-B2A1-A896D0A04DBE}">
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1593,13 +1587,13 @@
     <col min="2" max="2" width="10.69140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="6" max="8" width="10.69140625" customWidth="1"/>
-    <col min="16" max="16" width="16.84375" customWidth="1"/>
-    <col min="17" max="17" width="19.4609375" customWidth="1"/>
-    <col min="18" max="18" width="10.69140625" customWidth="1"/>
-    <col min="20" max="21" width="10.69140625" customWidth="1"/>
+    <col min="14" max="14" width="16.84375" customWidth="1"/>
+    <col min="15" max="15" width="19.4609375" customWidth="1"/>
+    <col min="16" max="16" width="10.69140625" customWidth="1"/>
+    <col min="18" max="19" width="10.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -1628,19 +1622,13 @@
         <v>283</v>
       </c>
       <c r="J1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K1" t="s">
-        <v>376</v>
-      </c>
-      <c r="L1" t="s">
-        <v>367</v>
-      </c>
-      <c r="M1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>286</v>
       </c>
@@ -1669,19 +1657,13 @@
         <v>0.16</v>
       </c>
       <c r="J2">
-        <v>0.156</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
         <v>3.7037037037037028E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>297</v>
       </c>
@@ -1710,19 +1692,13 @@
         <v>0.153</v>
       </c>
       <c r="J3">
-        <v>0.216</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>0.42</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
         <v>0.23333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -1751,19 +1727,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J4">
-        <v>-2.4E-2</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
         <v>0.19230769230769229</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -1792,19 +1762,13 @@
         <v>0.153</v>
       </c>
       <c r="J5">
-        <v>0.247</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
         <v>7.575757575757576E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -1833,19 +1797,13 @@
         <v>0.126</v>
       </c>
       <c r="J6">
-        <v>-1.9E-2</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>288</v>
       </c>
@@ -1874,19 +1832,13 @@
         <v>0.152</v>
       </c>
       <c r="J7">
-        <v>4.8000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
         <v>3.8461538461538457E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -1915,19 +1867,13 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="J8">
-        <v>0.23100000000000001</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
         <v>4.3478260869565223E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>290</v>
       </c>
@@ -1956,19 +1902,13 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="J9">
-        <v>0.14099999999999999</v>
+        <v>13</v>
       </c>
       <c r="K9">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="L9">
-        <v>13</v>
-      </c>
-      <c r="M9">
         <v>8.5526315789473686E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -1997,19 +1937,13 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="J10">
-        <v>7.9000000000000001E-2</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10">
         <v>0.15789473684210531</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -2038,19 +1972,13 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J11">
-        <v>0.109</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -2079,19 +2007,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="J12">
-        <v>0.28199999999999997</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
         <v>0.125</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>296</v>
       </c>
@@ -2120,19 +2042,13 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="J13">
-        <v>0.159</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>0.498</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -2161,19 +2077,13 @@
         <v>0.183</v>
       </c>
       <c r="J14">
-        <v>0.02</v>
+        <v>14</v>
       </c>
       <c r="K14">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="L14">
-        <v>14</v>
-      </c>
-      <c r="M14">
         <v>5.4263565891472867E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>299</v>
       </c>
@@ -2202,19 +2112,13 @@
         <v>0.192</v>
       </c>
       <c r="J15">
-        <v>7.0000000000000001E-3</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="M15">
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>300</v>
       </c>
@@ -2243,19 +2147,13 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="J16">
-        <v>0.29299999999999998</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>0.436</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
         <v>4.4444444444444453E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>298</v>
       </c>
@@ -2284,19 +2182,13 @@
         <v>0.154</v>
       </c>
       <c r="J17">
-        <v>0.253</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="L17">
-        <v>4</v>
-      </c>
-      <c r="M17">
         <v>5.9701492537313432E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>304</v>
       </c>
@@ -2325,19 +2217,13 @@
         <v>0.155</v>
       </c>
       <c r="J18">
-        <v>0.26500000000000001</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0.184</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>303</v>
       </c>
@@ -2366,19 +2252,13 @@
         <v>0.151</v>
       </c>
       <c r="J19">
-        <v>0.14199999999999999</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -2407,19 +2287,13 @@
         <v>0.16</v>
       </c>
       <c r="J20">
-        <v>0.32</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>0.35</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
         <v>5.8139534883720929E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -2448,19 +2322,13 @@
         <v>0.16</v>
       </c>
       <c r="J21">
-        <v>0.41399999999999998</v>
+        <v>11</v>
       </c>
       <c r="K21">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="L21">
-        <v>11</v>
-      </c>
-      <c r="M21">
         <v>6.8750000000000006E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>323</v>
       </c>
@@ -2489,19 +2357,13 @@
         <v>0.16</v>
       </c>
       <c r="J22">
-        <v>0.39</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22">
         <v>4.6875E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>326</v>
       </c>
@@ -2530,19 +2392,13 @@
         <v>0.16</v>
       </c>
       <c r="J23">
-        <v>0.39300000000000002</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>0.31</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
         <v>6.4102564102564097E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>336</v>
       </c>
@@ -2571,19 +2427,13 @@
         <v>0.153</v>
       </c>
       <c r="J24">
-        <v>0.155</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>0.185</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>360</v>
       </c>
@@ -2612,19 +2462,13 @@
         <v>0.153</v>
       </c>
       <c r="J25">
-        <v>0.40600000000000003</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>-0.04</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25">
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>361</v>
       </c>
@@ -2653,19 +2497,13 @@
         <v>0.153</v>
       </c>
       <c r="J26">
-        <v>0.48199999999999998</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26">
         <v>2.0833333333333329E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -2694,19 +2532,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J27">
-        <v>0.26100000000000001</v>
+        <v>11</v>
       </c>
       <c r="K27">
-        <v>0.31</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
         <v>6.5868263473053898E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -2735,19 +2567,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J28">
-        <v>0.38200000000000001</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="L28">
-        <v>6</v>
-      </c>
-      <c r="M28">
         <v>6.8181818181818177E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>310</v>
       </c>
@@ -2776,19 +2602,13 @@
         <v>0.153</v>
       </c>
       <c r="J29">
-        <v>0.29299999999999998</v>
+        <v>14</v>
       </c>
       <c r="K29">
-        <v>0.32</v>
-      </c>
-      <c r="L29">
-        <v>14</v>
-      </c>
-      <c r="M29">
         <v>9.3959731543624164E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>324</v>
       </c>
@@ -2817,19 +2637,13 @@
         <v>0.153</v>
       </c>
       <c r="J30">
-        <v>0.20799999999999999</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0.372</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
         <v>2.7027027027027029E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>329</v>
       </c>
@@ -2858,19 +2672,13 @@
         <v>0.153</v>
       </c>
       <c r="J31">
-        <v>0.28699999999999998</v>
+        <v>14</v>
       </c>
       <c r="K31">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="L31">
-        <v>14</v>
-      </c>
-      <c r="M31">
         <v>0.1728395061728395</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>306</v>
       </c>
@@ -2899,19 +2707,13 @@
         <v>0.126</v>
       </c>
       <c r="J32">
-        <v>0.26600000000000001</v>
+        <v>2</v>
       </c>
       <c r="K32">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
         <v>2.9411764705882349E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>315</v>
       </c>
@@ -2940,19 +2742,13 @@
         <v>0.126</v>
       </c>
       <c r="J33">
-        <v>0.23599999999999999</v>
+        <v>3</v>
       </c>
       <c r="K33">
-        <v>0.182</v>
-      </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
-      <c r="M33">
         <v>0.10344827586206901</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>317</v>
       </c>
@@ -2981,19 +2777,13 @@
         <v>0.126</v>
       </c>
       <c r="J34">
-        <v>9.1999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>308</v>
       </c>
@@ -3022,19 +2812,13 @@
         <v>0.152</v>
       </c>
       <c r="J35">
-        <v>0.14099999999999999</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="L35">
-        <v>2</v>
-      </c>
-      <c r="M35">
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>318</v>
       </c>
@@ -3063,19 +2847,13 @@
         <v>0.152</v>
       </c>
       <c r="J36">
-        <v>0.217</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="L36">
-        <v>5</v>
-      </c>
-      <c r="M36">
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>325</v>
       </c>
@@ -3104,19 +2882,13 @@
         <v>0.152</v>
       </c>
       <c r="J37">
-        <v>0.24</v>
+        <v>4</v>
       </c>
       <c r="K37">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="L37">
-        <v>4</v>
-      </c>
-      <c r="M37">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>319</v>
       </c>
@@ -3145,19 +2917,13 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="J38">
-        <v>0.189</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
         <v>0.02</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>320</v>
       </c>
@@ -3186,19 +2952,13 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="J39">
-        <v>0.28000000000000003</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="L39">
-        <v>10</v>
-      </c>
-      <c r="M39">
         <v>0.108695652173913</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>311</v>
       </c>
@@ -3227,19 +2987,13 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="J40">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="K40">
-        <v>0.33</v>
-      </c>
-      <c r="L40">
-        <v>10</v>
-      </c>
-      <c r="M40">
         <v>0.12195121951219511</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>321</v>
       </c>
@@ -3268,19 +3022,13 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="J41">
-        <v>0.19400000000000001</v>
+        <v>5</v>
       </c>
       <c r="K41">
-        <v>0.42</v>
-      </c>
-      <c r="L41">
-        <v>5</v>
-      </c>
-      <c r="M41">
         <v>6.3291139240506333E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>322</v>
       </c>
@@ -3309,19 +3057,13 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="J42">
-        <v>0.18</v>
+        <v>5</v>
       </c>
       <c r="K42">
-        <v>0.38</v>
-      </c>
-      <c r="L42">
-        <v>5</v>
-      </c>
-      <c r="M42">
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>312</v>
       </c>
@@ -3350,19 +3092,13 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="J43">
-        <v>0.42799999999999999</v>
+        <v>8</v>
       </c>
       <c r="K43">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="L43">
-        <v>8</v>
-      </c>
-      <c r="M43">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>331</v>
       </c>
@@ -3391,19 +3127,13 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="J44">
-        <v>0.315</v>
+        <v>4</v>
       </c>
       <c r="K44">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="L44">
-        <v>4</v>
-      </c>
-      <c r="M44">
         <v>0.04</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>314</v>
       </c>
@@ -3432,19 +3162,13 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J45">
-        <v>0.11799999999999999</v>
+        <v>8</v>
       </c>
       <c r="K45">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="L45">
-        <v>8</v>
-      </c>
-      <c r="M45">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>328</v>
       </c>
@@ -3473,19 +3197,13 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J46">
-        <v>0.03</v>
+        <v>7</v>
       </c>
       <c r="K46">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="L46">
-        <v>7</v>
-      </c>
-      <c r="M46">
         <v>0.1186440677966102</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>330</v>
       </c>
@@ -3514,19 +3232,13 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J47">
-        <v>0.14199999999999999</v>
+        <v>14</v>
       </c>
       <c r="K47">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="L47">
-        <v>14</v>
-      </c>
-      <c r="M47">
         <v>0.10071942446043169</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>333</v>
       </c>
@@ -3555,19 +3267,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="J48">
-        <v>0.53700000000000003</v>
+        <v>13</v>
       </c>
       <c r="K48">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="L48">
-        <v>13</v>
-      </c>
-      <c r="M48">
         <v>0.15853658536585369</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>334</v>
       </c>
@@ -3596,19 +3302,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="J49">
-        <v>0.33400000000000002</v>
+        <v>12</v>
       </c>
       <c r="K49">
-        <v>0.35</v>
-      </c>
-      <c r="L49">
-        <v>12</v>
-      </c>
-      <c r="M49">
         <v>0.1621621621621622</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -3637,19 +3337,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="J50">
-        <v>0.30499999999999999</v>
+        <v>6</v>
       </c>
       <c r="K50">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="L50">
-        <v>6</v>
-      </c>
-      <c r="M50">
         <v>6.5217391304347824E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -3678,19 +3372,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="J51">
-        <v>0.35299999999999998</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
         <v>2.0833333333333329E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>359</v>
       </c>
@@ -3719,19 +3407,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="J52">
-        <v>0.26900000000000002</v>
+        <v>3</v>
       </c>
       <c r="K52">
-        <v>0.32</v>
-      </c>
-      <c r="L52">
-        <v>3</v>
-      </c>
-      <c r="M52">
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>335</v>
       </c>
@@ -3760,19 +3442,13 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="J53">
-        <v>0.374</v>
+        <v>15</v>
       </c>
       <c r="K53">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="L53">
-        <v>15</v>
-      </c>
-      <c r="M53">
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>347</v>
       </c>
@@ -3801,19 +3477,13 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="J54">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>339</v>
       </c>
@@ -3842,19 +3512,13 @@
         <v>0.183</v>
       </c>
       <c r="J55">
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>349</v>
       </c>
@@ -3883,19 +3547,13 @@
         <v>0.183</v>
       </c>
       <c r="J56">
-        <v>0.34300000000000003</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>337</v>
       </c>
@@ -3924,19 +3582,13 @@
         <v>0.192</v>
       </c>
       <c r="J57">
-        <v>0.247</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
         <v>0.04</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>343</v>
       </c>
@@ -3965,19 +3617,13 @@
         <v>0.192</v>
       </c>
       <c r="J58">
-        <v>0.32600000000000001</v>
+        <v>8</v>
       </c>
       <c r="K58">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="L58">
-        <v>8</v>
-      </c>
-      <c r="M58">
         <v>7.0796460176991149E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>350</v>
       </c>
@@ -4006,19 +3652,13 @@
         <v>0.192</v>
       </c>
       <c r="J59">
-        <v>0.42</v>
+        <v>9</v>
       </c>
       <c r="K59">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="L59">
-        <v>9</v>
-      </c>
-      <c r="M59">
         <v>4.5454545454545463E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>352</v>
       </c>
@@ -4047,19 +3687,13 @@
         <v>0.192</v>
       </c>
       <c r="J60">
-        <v>0.16400000000000001</v>
+        <v>3</v>
       </c>
       <c r="K60">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
         <v>0.10344827586206901</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>355</v>
       </c>
@@ -4088,19 +3722,13 @@
         <v>0.192</v>
       </c>
       <c r="J61">
-        <v>0.309</v>
+        <v>4</v>
       </c>
       <c r="K61">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="L61">
-        <v>4</v>
-      </c>
-      <c r="M61">
         <v>0.08</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>332</v>
       </c>
@@ -4129,19 +3757,13 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="J62">
-        <v>0.27300000000000002</v>
+        <v>5</v>
       </c>
       <c r="K62">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="L62">
-        <v>5</v>
-      </c>
-      <c r="M62">
         <v>0.23809523809523811</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>341</v>
       </c>
@@ -4170,19 +3792,13 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="J63">
-        <v>0.14299999999999999</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="L63">
-        <v>5</v>
-      </c>
-      <c r="M63">
         <v>0.1063829787234043</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>346</v>
       </c>
@@ -4211,19 +3827,13 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="J64">
-        <v>0.20200000000000001</v>
+        <v>2</v>
       </c>
       <c r="K64">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="L64">
-        <v>2</v>
-      </c>
-      <c r="M64">
         <v>3.4482758620689648E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -4252,19 +3862,13 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="J65">
-        <v>0.21299999999999999</v>
+        <v>3</v>
       </c>
       <c r="K65">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="L65">
-        <v>3</v>
-      </c>
-      <c r="M65">
         <v>0.13043478260869559</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>338</v>
       </c>
@@ -4293,19 +3897,13 @@
         <v>0.154</v>
       </c>
       <c r="J66">
-        <v>0.33800000000000002</v>
+        <v>6</v>
       </c>
       <c r="K66">
-        <v>0.252</v>
-      </c>
-      <c r="L66">
-        <v>6</v>
-      </c>
-      <c r="M66">
         <v>0.1714285714285714</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>344</v>
       </c>
@@ -4334,19 +3932,13 @@
         <v>0.154</v>
       </c>
       <c r="J67">
-        <v>0.372</v>
+        <v>4</v>
       </c>
       <c r="K67">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="L67">
-        <v>4</v>
-      </c>
-      <c r="M67">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>348</v>
       </c>
@@ -4375,19 +3967,13 @@
         <v>0.154</v>
       </c>
       <c r="J68">
-        <v>0.33800000000000002</v>
+        <v>16</v>
       </c>
       <c r="K68">
-        <v>0.2</v>
-      </c>
-      <c r="L68">
-        <v>16</v>
-      </c>
-      <c r="M68">
         <v>0.1553398058252427</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>353</v>
       </c>
@@ -4416,19 +4002,13 @@
         <v>0.154</v>
       </c>
       <c r="J69">
-        <v>0.31</v>
+        <v>3</v>
       </c>
       <c r="K69">
-        <v>0.215</v>
-      </c>
-      <c r="L69">
-        <v>3</v>
-      </c>
-      <c r="M69">
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>357</v>
       </c>
@@ -4457,19 +4037,13 @@
         <v>0.154</v>
       </c>
       <c r="J70">
-        <v>0.40300000000000002</v>
+        <v>13</v>
       </c>
       <c r="K70">
-        <v>0.441</v>
-      </c>
-      <c r="L70">
-        <v>13</v>
-      </c>
-      <c r="M70">
         <v>0.12264150943396231</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>345</v>
       </c>
@@ -4498,19 +4072,13 @@
         <v>0.155</v>
       </c>
       <c r="J71">
-        <v>0.15</v>
+        <v>7</v>
       </c>
       <c r="K71">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="L71">
-        <v>7</v>
-      </c>
-      <c r="M71">
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>354</v>
       </c>
@@ -4539,19 +4107,13 @@
         <v>0.155</v>
       </c>
       <c r="J72">
-        <v>0.27600000000000002</v>
+        <v>11</v>
       </c>
       <c r="K72">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="L72">
-        <v>11</v>
-      </c>
-      <c r="M72">
         <v>9.3220338983050849E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>351</v>
       </c>
@@ -4580,19 +4142,13 @@
         <v>0.151</v>
       </c>
       <c r="J73">
-        <v>0.254</v>
+        <v>5</v>
       </c>
       <c r="K73">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="L73">
-        <v>5</v>
-      </c>
-      <c r="M73">
         <v>0.13157894736842099</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>358</v>
       </c>
@@ -4621,19 +4177,13 @@
         <v>0.151</v>
       </c>
       <c r="J74">
-        <v>0.20100000000000001</v>
+        <v>7</v>
       </c>
       <c r="K74">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="L74">
-        <v>7</v>
-      </c>
-      <c r="M74">
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>105</v>
       </c>
@@ -4662,19 +4212,13 @@
         <v>0.16</v>
       </c>
       <c r="J75">
-        <v>0.34100000000000003</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
         <v>9.9009900990099011E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>110</v>
       </c>
@@ -4703,19 +4247,13 @@
         <v>0.16</v>
       </c>
       <c r="J76">
-        <v>0.23200000000000001</v>
+        <v>6</v>
       </c>
       <c r="K76">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="L76">
-        <v>6</v>
-      </c>
-      <c r="M76">
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -4744,19 +4282,13 @@
         <v>0.16</v>
       </c>
       <c r="J77">
-        <v>0.24399999999999999</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
         <v>1.6129032258064519E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>122</v>
       </c>
@@ -4785,19 +4317,13 @@
         <v>0.16</v>
       </c>
       <c r="J78">
-        <v>0.23</v>
+        <v>7</v>
       </c>
       <c r="K78">
-        <v>0.35</v>
-      </c>
-      <c r="L78">
-        <v>7</v>
-      </c>
-      <c r="M78">
         <v>6.9306930693069313E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>134</v>
       </c>
@@ -4826,19 +4352,13 @@
         <v>0.153</v>
       </c>
       <c r="J79">
-        <v>0.245</v>
+        <v>5</v>
       </c>
       <c r="K79">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="L79">
-        <v>5</v>
-      </c>
-      <c r="M79">
         <v>5.434782608695652E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -4867,19 +4387,13 @@
         <v>0.153</v>
       </c>
       <c r="J80">
-        <v>0.249</v>
+        <v>6</v>
       </c>
       <c r="K80">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="L80">
-        <v>6</v>
-      </c>
-      <c r="M80">
         <v>0.10526315789473679</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -4908,19 +4422,13 @@
         <v>0.153</v>
       </c>
       <c r="J81">
-        <v>0.28699999999999998</v>
+        <v>3</v>
       </c>
       <c r="K81">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="L81">
-        <v>3</v>
-      </c>
-      <c r="M81">
         <v>4.6875E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>114</v>
       </c>
@@ -4949,19 +4457,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J82">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="K82">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="L82">
-        <v>5</v>
-      </c>
-      <c r="M82">
         <v>7.2463768115942032E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -4990,19 +4492,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J83">
-        <v>0.24399999999999999</v>
+        <v>16</v>
       </c>
       <c r="K83">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="L83">
-        <v>16</v>
-      </c>
-      <c r="M83">
         <v>0.1702127659574468</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -5031,19 +4527,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J84">
-        <v>9.1999999999999998E-2</v>
+        <v>11</v>
       </c>
       <c r="K84">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="L84">
-        <v>11</v>
-      </c>
-      <c r="M84">
         <v>9.2436974789915971E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>125</v>
       </c>
@@ -5072,19 +4562,13 @@
         <v>0.153</v>
       </c>
       <c r="J85">
-        <v>6.2E-2</v>
+        <v>3</v>
       </c>
       <c r="K85">
-        <v>0.441</v>
-      </c>
-      <c r="L85">
-        <v>3</v>
-      </c>
-      <c r="M85">
         <v>0.13636363636363641</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>117</v>
       </c>
@@ -5113,19 +4597,13 @@
         <v>0.126</v>
       </c>
       <c r="J86">
-        <v>0.3</v>
+        <v>14</v>
       </c>
       <c r="K86">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="L86">
-        <v>14</v>
-      </c>
-      <c r="M86">
         <v>0.14432989690721651</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -5154,19 +4632,13 @@
         <v>0.126</v>
       </c>
       <c r="J87">
-        <v>0.23699999999999999</v>
+        <v>5</v>
       </c>
       <c r="K87">
-        <v>0.187</v>
-      </c>
-      <c r="L87">
-        <v>5</v>
-      </c>
-      <c r="M87">
         <v>0.16129032258064521</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -5195,19 +4667,13 @@
         <v>0.126</v>
       </c>
       <c r="J88">
-        <v>0.30499999999999999</v>
+        <v>4</v>
       </c>
       <c r="K88">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -5236,19 +4702,13 @@
         <v>0.152</v>
       </c>
       <c r="J89">
-        <v>0.34300000000000003</v>
+        <v>3</v>
       </c>
       <c r="K89">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
         <v>0.15789473684210531</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>131</v>
       </c>
@@ -5277,19 +4737,13 @@
         <v>0.152</v>
       </c>
       <c r="J90">
-        <v>0.24299999999999999</v>
+        <v>5</v>
       </c>
       <c r="K90">
-        <v>0.214</v>
-      </c>
-      <c r="L90">
-        <v>5</v>
-      </c>
-      <c r="M90">
         <v>6.4102564102564097E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -5318,19 +4772,13 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="J91">
-        <v>0.36199999999999999</v>
+        <v>3</v>
       </c>
       <c r="K91">
-        <v>0.249</v>
-      </c>
-      <c r="L91">
-        <v>3</v>
-      </c>
-      <c r="M91">
         <v>7.3170731707317069E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>120</v>
       </c>
@@ -5359,19 +4807,13 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="J92">
-        <v>0.26200000000000001</v>
+        <v>2</v>
       </c>
       <c r="K92">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="L92">
-        <v>2</v>
-      </c>
-      <c r="M92">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -5400,19 +4842,13 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="J93">
-        <v>0.27200000000000002</v>
+        <v>4</v>
       </c>
       <c r="K93">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="L93">
-        <v>4</v>
-      </c>
-      <c r="M93">
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>111</v>
       </c>
@@ -5441,19 +4877,13 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="J94">
-        <v>0.23699999999999999</v>
+        <v>2</v>
       </c>
       <c r="K94">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="L94">
-        <v>2</v>
-      </c>
-      <c r="M94">
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -5482,19 +4912,13 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="J95">
-        <v>0.215</v>
+        <v>17</v>
       </c>
       <c r="K95">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="L95">
-        <v>17</v>
-      </c>
-      <c r="M95">
         <v>0.14655172413793099</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -5523,19 +4947,13 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="J96">
-        <v>0.252</v>
+        <v>2</v>
       </c>
       <c r="K96">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="L96">
-        <v>2</v>
-      </c>
-      <c r="M96">
         <v>2.4096385542168679E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>129</v>
       </c>
@@ -5564,19 +4982,13 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="J97">
-        <v>0.10100000000000001</v>
+        <v>3</v>
       </c>
       <c r="K97">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="L97">
-        <v>3</v>
-      </c>
-      <c r="M97">
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -5605,19 +5017,13 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="J98">
-        <v>0.221</v>
+        <v>6</v>
       </c>
       <c r="K98">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="L98">
-        <v>6</v>
-      </c>
-      <c r="M98">
         <v>0.1875</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -5646,19 +5052,13 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="J99">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -5687,19 +5087,13 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="J100">
-        <v>0.17199999999999999</v>
+        <v>10</v>
       </c>
       <c r="K100">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="L100">
-        <v>10</v>
-      </c>
-      <c r="M100">
         <v>0.10101010101010099</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -5728,19 +5122,13 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="J101">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -5769,19 +5157,13 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="J102">
-        <v>0.32500000000000001</v>
+        <v>10</v>
       </c>
       <c r="K102">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="L102">
-        <v>10</v>
-      </c>
-      <c r="M102">
         <v>3.8022813688212927E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>130</v>
       </c>
@@ -5810,19 +5192,13 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="J103">
-        <v>0.26500000000000001</v>
+        <v>3</v>
       </c>
       <c r="K103">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="L103">
-        <v>3</v>
-      </c>
-      <c r="M103">
         <v>4.5454545454545463E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -5851,19 +5227,13 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J104">
-        <v>0.12</v>
+        <v>8</v>
       </c>
       <c r="K104">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="L104">
-        <v>8</v>
-      </c>
-      <c r="M104">
         <v>0.13793103448275859</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -5892,19 +5262,13 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J105">
-        <v>0.27800000000000002</v>
+        <v>5</v>
       </c>
       <c r="K105">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="L105">
-        <v>5</v>
-      </c>
-      <c r="M105">
         <v>9.6153846153846159E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>148</v>
       </c>
@@ -5933,19 +5297,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="J106">
-        <v>0.34599999999999997</v>
+        <v>8</v>
       </c>
       <c r="K106">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="L106">
-        <v>8</v>
-      </c>
-      <c r="M106">
         <v>0.1012658227848101</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -5974,19 +5332,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="J107">
-        <v>0.34399999999999997</v>
+        <v>5</v>
       </c>
       <c r="K107">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="L107">
-        <v>5</v>
-      </c>
-      <c r="M107">
         <v>7.2463768115942032E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>133</v>
       </c>
@@ -6015,19 +5367,13 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="J108">
-        <v>-1.7000000000000001E-2</v>
+        <v>9</v>
       </c>
       <c r="K108">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="L108">
-        <v>9</v>
-      </c>
-      <c r="M108">
         <v>0.1125</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>141</v>
       </c>
@@ -6056,19 +5402,13 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="J109">
-        <v>0.18099999999999999</v>
+        <v>7</v>
       </c>
       <c r="K109">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="L109">
-        <v>7</v>
-      </c>
-      <c r="M109">
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>142</v>
       </c>
@@ -6097,19 +5437,13 @@
         <v>0.183</v>
       </c>
       <c r="J110">
-        <v>0.14899999999999999</v>
+        <v>2</v>
       </c>
       <c r="K110">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="L110">
-        <v>2</v>
-      </c>
-      <c r="M110">
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -6138,19 +5472,13 @@
         <v>0.183</v>
       </c>
       <c r="J111">
-        <v>8.5000000000000006E-2</v>
+        <v>5</v>
       </c>
       <c r="K111">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="L111">
-        <v>5</v>
-      </c>
-      <c r="M111">
         <v>0.23809523809523811</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>136</v>
       </c>
@@ -6179,19 +5507,13 @@
         <v>0.192</v>
       </c>
       <c r="J112">
-        <v>0.33200000000000002</v>
+        <v>14</v>
       </c>
       <c r="K112">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="L112">
-        <v>14</v>
-      </c>
-      <c r="M112">
         <v>0.14583333333333329</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>140</v>
       </c>
@@ -6220,19 +5542,13 @@
         <v>0.192</v>
       </c>
       <c r="J113">
-        <v>0.19500000000000001</v>
+        <v>3</v>
       </c>
       <c r="K113">
-        <v>0.122</v>
-      </c>
-      <c r="L113">
-        <v>3</v>
-      </c>
-      <c r="M113">
         <v>0.10344827586206901</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>143</v>
       </c>
@@ -6261,19 +5577,13 @@
         <v>0.192</v>
       </c>
       <c r="J114">
-        <v>0.223</v>
+        <v>4</v>
       </c>
       <c r="K114">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="L114">
-        <v>4</v>
-      </c>
-      <c r="M114">
         <v>0.13793103448275859</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>150</v>
       </c>
@@ -6302,19 +5612,13 @@
         <v>0.192</v>
       </c>
       <c r="J115">
-        <v>0.28199999999999997</v>
+        <v>1</v>
       </c>
       <c r="K115">
-        <v>0.315</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-      <c r="M115">
         <v>1.9230769230769228E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>151</v>
       </c>
@@ -6343,19 +5647,13 @@
         <v>0.192</v>
       </c>
       <c r="J116">
-        <v>0.14499999999999999</v>
+        <v>5</v>
       </c>
       <c r="K116">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="L116">
-        <v>5</v>
-      </c>
-      <c r="M116">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>137</v>
       </c>
@@ -6384,19 +5682,13 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="J117">
-        <v>0.14299999999999999</v>
+        <v>3</v>
       </c>
       <c r="K117">
-        <v>0.158</v>
-      </c>
-      <c r="L117">
-        <v>3</v>
-      </c>
-      <c r="M117">
         <v>4.5454545454545463E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>147</v>
       </c>
@@ -6425,19 +5717,13 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="J118">
-        <v>0.26100000000000001</v>
+        <v>3</v>
       </c>
       <c r="K118">
-        <v>0.373</v>
-      </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
         <v>4.8387096774193547E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -6466,19 +5752,13 @@
         <v>0.154</v>
       </c>
       <c r="J119">
-        <v>9.1999999999999998E-2</v>
+        <v>2</v>
       </c>
       <c r="K119">
-        <v>0.41</v>
-      </c>
-      <c r="L119">
-        <v>2</v>
-      </c>
-      <c r="M119">
         <v>3.8461538461538457E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -6507,19 +5787,13 @@
         <v>0.154</v>
       </c>
       <c r="J120">
-        <v>0.26100000000000001</v>
+        <v>2</v>
       </c>
       <c r="K120">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L120">
-        <v>2</v>
-      </c>
-      <c r="M120">
         <v>4.878048780487805E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>146</v>
       </c>
@@ -6548,19 +5822,13 @@
         <v>0.154</v>
       </c>
       <c r="J121">
-        <v>0.45700000000000002</v>
+        <v>3</v>
       </c>
       <c r="K121">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="L121">
-        <v>3</v>
-      </c>
-      <c r="M121">
         <v>4.4117647058823532E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>278</v>
       </c>
@@ -6589,19 +5857,13 @@
         <v>0.154</v>
       </c>
       <c r="J122">
-        <v>0.254</v>
+        <v>3</v>
       </c>
       <c r="K122">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="L122">
-        <v>3</v>
-      </c>
-      <c r="M122">
         <v>0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>281</v>
       </c>
@@ -6630,19 +5892,13 @@
         <v>0.155</v>
       </c>
       <c r="J123">
-        <v>0.26200000000000001</v>
+        <v>0</v>
       </c>
       <c r="K123">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="L123">
         <v>0</v>
       </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>155</v>
       </c>
@@ -6671,19 +5927,13 @@
         <v>0.155</v>
       </c>
       <c r="J124">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="K124">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="L124">
-        <v>1</v>
-      </c>
-      <c r="M124">
         <v>2.3809523809523812E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -6712,19 +5962,13 @@
         <v>0.151</v>
       </c>
       <c r="J125">
-        <v>0.374</v>
+        <v>3</v>
       </c>
       <c r="K125">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="L125">
-        <v>3</v>
-      </c>
-      <c r="M125">
         <v>4.6153846153846163E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>153</v>
       </c>
@@ -6753,19 +5997,13 @@
         <v>0.151</v>
       </c>
       <c r="J126">
-        <v>0.152</v>
+        <v>6</v>
       </c>
       <c r="K126">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="L126">
-        <v>6</v>
-      </c>
-      <c r="M126">
         <v>0.08</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>154</v>
       </c>
@@ -6794,15 +6032,9 @@
         <v>0.151</v>
       </c>
       <c r="J127">
-        <v>0.26800000000000002</v>
+        <v>1</v>
       </c>
       <c r="K127">
-        <v>0.314</v>
-      </c>
-      <c r="L127">
-        <v>1</v>
-      </c>
-      <c r="M127">
         <v>2.0833333333333329E-2</v>
       </c>
     </row>
@@ -6810,8 +6042,8 @@
       <c r="E186" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P20:R74">
-    <sortCondition ref="P20:P74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N20:P74">
+    <sortCondition ref="N20:N74"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12343,8 +11575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5071C9-3D09-4F07-87FE-48615B027C91}">
   <dimension ref="A1:J3017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J3017"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12354,16 +11586,16 @@
         <v>285</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>380</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
